--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_108__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_108__Reeval_LHS_Modell_1.3.xlsx
@@ -5873,7 +5873,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>70.48975372314453</c:v>
+                  <c:v>70.48974609375</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>64.82253265380859</c:v>
@@ -5885,19 +5885,19 @@
                   <c:v>65.18526458740234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.99205017089844</c:v>
+                  <c:v>60.99204254150391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.18968963623047</c:v>
+                  <c:v>66.18968200683594</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>68.84000396728516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.12036895751953</c:v>
+                  <c:v>71.120361328125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.4796142578125</c:v>
+                  <c:v>61.47960662841797</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>62.08779144287109</c:v>
@@ -5906,16 +5906,16 @@
                   <c:v>74.40459442138672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.36639404296875</c:v>
+                  <c:v>68.36638641357422</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.68947601318359</c:v>
+                  <c:v>65.68948364257812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74.94971466064453</c:v>
+                  <c:v>74.94972229003906</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.77602386474609</c:v>
+                  <c:v>61.77601623535156</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>69.89732360839844</c:v>
@@ -5930,31 +5930,31 @@
                   <c:v>63.84149932861328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.68408966064453</c:v>
+                  <c:v>75.68409729003906</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>64.09213256835938</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70.63822937011719</c:v>
+                  <c:v>70.63822174072266</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>71.27492523193359</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65.84986114501953</c:v>
+                  <c:v>65.849853515625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70.73348236083984</c:v>
+                  <c:v>70.73347473144531</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>60.00583648681641</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.75856781005859</c:v>
+                  <c:v>75.75856018066406</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>66.51097869873047</c:v>
+                  <c:v>66.51099395751953</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>65.66093444824219</c:v>
@@ -5963,19 +5963,19 @@
                   <c:v>63.52156829833984</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>64.58956146240234</c:v>
+                  <c:v>64.58956909179688</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>67.77396392822266</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>72.90380859375</c:v>
+                  <c:v>72.90380096435547</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>69.69243621826172</c:v>
+                  <c:v>69.69242858886719</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>66.58027648925781</c:v>
+                  <c:v>66.58029174804688</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>69.57672119140625</c:v>
@@ -5990,10 +5990,10 @@
                   <c:v>70.93894195556641</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69.99223327636719</c:v>
+                  <c:v>69.99222564697266</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>69.25534820556641</c:v>
+                  <c:v>69.25534057617188</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>54.89083862304688</c:v>
@@ -6005,22 +6005,22 @@
                   <c:v>67.66094970703125</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74.03181457519531</c:v>
+                  <c:v>74.03182220458984</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>66.83285522460938</c:v>
+                  <c:v>66.83287048339844</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>61.50967407226562</c:v>
+                  <c:v>61.50968170166016</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>68.23649597167969</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>71.2110595703125</c:v>
+                  <c:v>71.21106719970703</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>65.09360504150391</c:v>
+                  <c:v>65.09361267089844</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>71.53916931152344</c:v>
@@ -6047,10 +6047,10 @@
                   <c:v>62.12686920166016</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>63.82163238525391</c:v>
+                  <c:v>63.82161712646484</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>68.35546112060547</c:v>
+                  <c:v>68.35546875</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>73.21550750732422</c:v>
@@ -6071,22 +6071,22 @@
                   <c:v>74.46077728271484</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>65.85696411132812</c:v>
+                  <c:v>65.85697174072266</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>66.06816864013672</c:v>
+                  <c:v>66.06816101074219</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>57.75810241699219</c:v>
+                  <c:v>57.75809478759766</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>61.67855834960938</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>65.09797668457031</c:v>
+                  <c:v>65.09798431396484</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68.02448272705078</c:v>
+                  <c:v>68.02446746826172</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>69.34233093261719</c:v>
@@ -6101,7 +6101,7 @@
                   <c:v>61.13329315185547</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>61.45273590087891</c:v>
+                  <c:v>61.45272827148438</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>64.36124420166016</c:v>
@@ -6125,31 +6125,31 @@
                   <c:v>73.21891784667969</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>69.97129821777344</c:v>
+                  <c:v>69.97130584716797</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>58.45960235595703</c:v>
+                  <c:v>58.45960998535156</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>71.6005859375</c:v>
+                  <c:v>71.60057830810547</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>65.42971801757812</c:v>
+                  <c:v>65.42972564697266</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>76.66664886474609</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>64.8170166015625</c:v>
+                  <c:v>64.81702423095703</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>63.59449005126953</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>56.00636291503906</c:v>
+                  <c:v>56.00637054443359</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>78.30923461914062</c:v>
+                  <c:v>78.30924987792969</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>73.905517578125</c:v>
@@ -6859,7 +6859,7 @@
         <v>73.39830000000001</v>
       </c>
       <c r="F2">
-        <v>70.48975372314453</v>
+        <v>70.48974609375</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>71.60080000000001</v>
       </c>
       <c r="F6">
-        <v>60.99205017089844</v>
+        <v>60.99204254150391</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>87.6867</v>
       </c>
       <c r="F7">
-        <v>66.18968963623047</v>
+        <v>66.18968200683594</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7071,7 +7071,7 @@
         <v>73.1687</v>
       </c>
       <c r="F9">
-        <v>71.12036895751953</v>
+        <v>71.120361328125</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>61.4796142578125</v>
+        <v>61.47960662841797</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>50.4651</v>
       </c>
       <c r="F13">
-        <v>68.36639404296875</v>
+        <v>68.36638641357422</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>86.3768</v>
       </c>
       <c r="F14">
-        <v>65.68947601318359</v>
+        <v>65.68948364257812</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>51.3815</v>
       </c>
       <c r="F15">
-        <v>74.94971466064453</v>
+        <v>74.94972229003906</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>70.16200000000001</v>
       </c>
       <c r="F16">
-        <v>61.77602386474609</v>
+        <v>61.77601623535156</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>84.6895</v>
       </c>
       <c r="F21">
-        <v>75.68408966064453</v>
+        <v>75.68409729003906</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>74.9674</v>
       </c>
       <c r="F23">
-        <v>70.63822937011719</v>
+        <v>70.63822174072266</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>54.0954</v>
       </c>
       <c r="F25">
-        <v>65.84986114501953</v>
+        <v>65.849853515625</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>74.5719</v>
       </c>
       <c r="F26">
-        <v>70.73348236083984</v>
+        <v>70.73347473144531</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>73.9263</v>
       </c>
       <c r="F28">
-        <v>75.75856781005859</v>
+        <v>75.75856018066406</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>75.6429</v>
       </c>
       <c r="F29">
-        <v>66.51097869873047</v>
+        <v>66.51099395751953</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>64.58956146240234</v>
+        <v>64.58956909179688</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>86.2996</v>
       </c>
       <c r="F34">
-        <v>72.90380859375</v>
+        <v>72.90380096435547</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.6055</v>
       </c>
       <c r="F35">
-        <v>69.69243621826172</v>
+        <v>69.69242858886719</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>68.4312</v>
       </c>
       <c r="F36">
-        <v>66.58027648925781</v>
+        <v>66.58029174804688</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>42.0409</v>
       </c>
       <c r="F41">
-        <v>69.99223327636719</v>
+        <v>69.99222564697266</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>66.3913</v>
       </c>
       <c r="F42">
-        <v>69.25534820556641</v>
+        <v>69.25534057617188</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>54.5106</v>
       </c>
       <c r="F46">
-        <v>74.03181457519531</v>
+        <v>74.03182220458984</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>66.83285522460938</v>
+        <v>66.83287048339844</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>65.1785</v>
       </c>
       <c r="F48">
-        <v>61.50967407226562</v>
+        <v>61.50968170166016</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>70.9816</v>
       </c>
       <c r="F50">
-        <v>71.2110595703125</v>
+        <v>71.21106719970703</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>63.4987</v>
       </c>
       <c r="F51">
-        <v>65.09360504150391</v>
+        <v>65.09361267089844</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>30.4312</v>
       </c>
       <c r="F60">
-        <v>63.82163238525391</v>
+        <v>63.82161712646484</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>43.5825</v>
       </c>
       <c r="F61">
-        <v>68.35546112060547</v>
+        <v>68.35546875</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>72.51430000000001</v>
       </c>
       <c r="F68">
-        <v>65.85696411132812</v>
+        <v>65.85697174072266</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>69.7713</v>
       </c>
       <c r="F69">
-        <v>66.06816864013672</v>
+        <v>66.06816101074219</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>51.1284</v>
       </c>
       <c r="F70">
-        <v>57.75810241699219</v>
+        <v>57.75809478759766</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>67.99120000000001</v>
       </c>
       <c r="F72">
-        <v>65.09797668457031</v>
+        <v>65.09798431396484</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>83.1452</v>
       </c>
       <c r="F73">
-        <v>68.02448272705078</v>
+        <v>68.02446746826172</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>82.36839999999999</v>
       </c>
       <c r="F78">
-        <v>61.45273590087891</v>
+        <v>61.45272827148438</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>68.0429</v>
       </c>
       <c r="F86">
-        <v>69.97129821777344</v>
+        <v>69.97130584716797</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>57.7404</v>
       </c>
       <c r="F87">
-        <v>58.45960235595703</v>
+        <v>58.45960998535156</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>63.2242</v>
       </c>
       <c r="F88">
-        <v>71.6005859375</v>
+        <v>71.60057830810547</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>37.9179</v>
       </c>
       <c r="F89">
-        <v>65.42971801757812</v>
+        <v>65.42972564697266</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5769</v>
       </c>
       <c r="F91">
-        <v>64.8170166015625</v>
+        <v>64.81702423095703</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>77.9066</v>
       </c>
       <c r="F93">
-        <v>56.00636291503906</v>
+        <v>56.00637054443359</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>40.8326</v>
       </c>
       <c r="F94">
-        <v>78.30923461914062</v>
+        <v>78.30924987792969</v>
       </c>
     </row>
     <row r="95" spans="1:6">
